--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942342AE-8A6A-4C48-9CF4-D54C39F9C702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4277E-764F-4626-9AFA-4E0A46B1D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,6 +788,21 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,21 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="44">
-        <f t="shared" ref="Q2:Q21" si="0">H2/P2</f>
+        <f t="shared" ref="Q2:Q20" si="0">H2/P2</f>
         <v>0.4375</v>
       </c>
     </row>
@@ -2217,22 +2217,22 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="65">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="65">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="65">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="67" ph="1">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="67" ph="1">
+      <c r="P21" s="63" ph="1">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="63">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
@@ -2274,11 +2274,11 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="68" ph="1"/>
-      <c r="Q22" s="68" ph="1">
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="64" ph="1"/>
+      <c r="Q22" s="64" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2463,22 +2463,22 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="67">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26" s="67">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="58">
+      <c r="O26" s="65">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="67" ph="1">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="67" ph="1">
+      <c r="P26" s="63" ph="1">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="63">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
@@ -2520,11 +2520,11 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="68" ph="1"/>
-      <c r="Q27" s="68" ph="1">
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="64" ph="1"/>
+      <c r="Q27" s="64" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2709,22 +2709,22 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="59">
+      <c r="M31" s="66">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="66">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="66">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="67" ph="1">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="67" ph="1">
+      <c r="P31" s="63" ph="1">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="63">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
@@ -2766,11 +2766,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="68" ph="1"/>
-      <c r="Q32" s="68" ph="1">
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="64" ph="1"/>
+      <c r="Q32" s="64" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3205,12 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
@@ -3220,6 +3214,12 @@
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3230,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CA612-A682-4C4A-B463-69A4C7353876}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4117,46 +4117,46 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="60">
         <v>5</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="60">
         <v>3056</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="62">
         <v>3060</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="62">
         <v>4</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="60">
         <v>2</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="61">
         <v>22.27</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="61">
         <v>54.23</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="61">
         <v>44.215000000000003</v>
       </c>
-      <c r="L21" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="69">
-        <v>8</v>
-      </c>
-      <c r="N21" s="69">
+      <c r="L21" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="60">
+        <v>8</v>
+      </c>
+      <c r="N21" s="60">
         <v>0.25</v>
       </c>
     </row>
@@ -4293,46 +4293,46 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+      <c r="A25" s="60">
         <v>6</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="60">
         <v>3056</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="62">
         <v>3059</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="62">
         <v>3</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="60">
         <v>1</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="61">
         <v>19.536666666666665</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="61">
         <v>44.243333333333332</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="61">
         <v>38.4</v>
       </c>
-      <c r="L25" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="69">
-        <v>8</v>
-      </c>
-      <c r="N25" s="69">
+      <c r="L25" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="60">
+        <v>8</v>
+      </c>
+      <c r="N25" s="60">
         <v>0.125</v>
       </c>
     </row>
@@ -4469,46 +4469,46 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+      <c r="A29" s="60">
         <v>7</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="60">
         <v>3056</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="62">
         <v>3059</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="62">
         <v>3</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="60">
         <v>1</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="61">
         <v>25.00333333333333</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="61">
         <v>85.063333333333333</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="61">
         <v>38.386666666666663</v>
       </c>
-      <c r="L29" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="69">
-        <v>8</v>
-      </c>
-      <c r="N29" s="69">
+      <c r="L29" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="60">
+        <v>8</v>
+      </c>
+      <c r="N29" s="60">
         <v>0.125</v>
       </c>
     </row>
@@ -4887,10 +4887,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4934,8 +4934,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -5624,10 +5624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5671,8 +5671,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6312,10 +6312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6359,8 +6359,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7002,10 +7002,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7049,8 +7049,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7614,15 +7614,15 @@
       <c r="C18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="58">
         <f t="shared" ref="I18:K18" si="0">MAX(I7:I15)</f>
         <v>5</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="58">
         <f t="shared" si="0"/>
         <v>28.61</v>
       </c>
@@ -7630,7 +7630,7 @@
         <f>MAX(L7:L15)</f>
         <v>107.45</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="58">
         <f>MAX(M7:M15)</f>
         <v>77.89</v>
       </c>
@@ -7646,15 +7646,15 @@
       <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="59">
         <f t="shared" ref="I19:K19" si="1">MIN(I7:I15)</f>
         <v>3</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="59">
         <f t="shared" si="1"/>
         <v>19.11</v>
       </c>
@@ -7662,7 +7662,7 @@
         <f>MIN(L7:L15)</f>
         <v>44.243333333333332</v>
       </c>
-      <c r="M19" s="66">
+      <c r="M19" s="59">
         <f>MIN(M7:M15)</f>
         <v>38.386666666666663</v>
       </c>
@@ -7715,10 +7715,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7759,8 +7759,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8118,40 +8118,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="63"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="63"/>
+      <c r="N3" s="70"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4277E-764F-4626-9AFA-4E0A46B1D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C654D-1757-46C7-9B65-829C6BC5BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
-    <sheet name="表2-总 连井剖面图" sheetId="10" r:id="rId2"/>
-    <sheet name="表2-2 K1_1数据" sheetId="4" r:id="rId3"/>
-    <sheet name="表2-3 K1_2数据" sheetId="6" r:id="rId4"/>
-    <sheet name="表2-4 K2_1数据" sheetId="7" r:id="rId5"/>
-    <sheet name="表2-5 K_2_2数据" sheetId="8" r:id="rId6"/>
-    <sheet name="模板" sheetId="5" r:id="rId7"/>
-    <sheet name="储量计算" sheetId="9" r:id="rId8"/>
+    <sheet name="01储量计算" sheetId="11" r:id="rId2"/>
+    <sheet name="表2-总 连井剖面图" sheetId="10" r:id="rId3"/>
+    <sheet name="表2-2 K1_1数据" sheetId="4" r:id="rId4"/>
+    <sheet name="表2-3 K1_2数据" sheetId="6" r:id="rId5"/>
+    <sheet name="表2-4 K2_1数据" sheetId="7" r:id="rId6"/>
+    <sheet name="表2-5 K_2_2数据" sheetId="8" r:id="rId7"/>
+    <sheet name="模板" sheetId="5" r:id="rId8"/>
+    <sheet name="储量计算" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表2-1 单井测井解释数据'!$A$1:$Q$40</definedName>
@@ -1204,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:Q40"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3227,11 +3228,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F121673-7E25-4FF4-BB2B-3BF64F8C01D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CA612-A682-4C4A-B463-69A4C7353876}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4870,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -5605,7 +5619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -6293,7 +6307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
@@ -6981,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -7701,7 +7715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -8087,7 +8101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C654D-1757-46C7-9B65-829C6BC5BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A438D-93C8-4AE6-A138-0A1B5A932E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="储量计算" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表2-1 单井测井解释数据'!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表2-1 单井测井解释数据'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="126">
   <si>
     <t>序号</t>
   </si>
@@ -340,6 +340,149 @@
   </si>
   <si>
     <t>平均渗透率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围X</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围Y</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积系数Boi</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>密度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂组</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>小层</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积/Km2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂厚/m</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效厚度/m</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔隙度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>储量/10^4t</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透率变化</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>物性参数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面变异系数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>级差</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>突进系数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>层间非均质性</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1_1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1_2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2_2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2_1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -347,11 +490,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +620,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +725,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -624,11 +787,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,11 +972,14 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,6 +989,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,6 +1008,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -833,10 +1055,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD2B9E9"/>
+      <color rgb="FFB991DD"/>
       <color rgb="FF79E5FF"/>
       <color rgb="FFFFC411"/>
       <color rgb="FFA76DD3"/>
-      <color rgb="FFB991DD"/>
       <color rgb="FFC1E29B"/>
       <color rgb="FFA3EFFF"/>
     </mruColors>
@@ -1203,10 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2218,22 +2442,22 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="66">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="65">
+      <c r="N21" s="66">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="65">
+      <c r="O21" s="66">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="63" ph="1">
+      <c r="P21" s="69" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="63">
+      <c r="Q21" s="69">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
@@ -2275,11 +2499,11 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="64" ph="1"/>
-      <c r="Q22" s="64" ph="1">
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="70" ph="1"/>
+      <c r="Q22" s="70" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2464,22 +2688,22 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="68">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="67">
+      <c r="N26" s="68">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="65">
+      <c r="O26" s="66">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="63" ph="1">
+      <c r="P26" s="69" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="63">
+      <c r="Q26" s="69">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
@@ -2521,11 +2745,11 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="64" ph="1"/>
-      <c r="Q27" s="64" ph="1">
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="70" ph="1"/>
+      <c r="Q27" s="70" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2710,22 +2934,22 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="67">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="67">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="67">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="63" ph="1">
+      <c r="P31" s="69" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="63">
+      <c r="Q31" s="69">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
@@ -2767,11 +2991,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="64" ph="1"/>
-      <c r="Q32" s="64" ph="1">
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="70" ph="1"/>
+      <c r="Q32" s="70" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3205,7 +3429,18 @@
       <c r="O58" s="53"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q40" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <iconFilter iconSet="3Arrows"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
@@ -3215,12 +3450,6 @@
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3229,12 +3458,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F121673-7E25-4FF4-BB2B-3BF64F8C01D4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="65"/>
+      <c r="B1" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="78">
+        <v>3200</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="78">
+        <v>1650</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="78">
+        <v>0.85</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="78">
+        <v>1.02</v>
+      </c>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="80"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="64">
+        <f>$C$1*$E$1/1000000</f>
+        <v>5.28</v>
+      </c>
+      <c r="E4" s="79">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="F4" s="79">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="G4" s="79">
+        <v>0.18170000000000003</v>
+      </c>
+      <c r="H4" s="79">
+        <v>0.69642222222222216</v>
+      </c>
+      <c r="I4" s="63">
+        <f>100*D4*F4*G4*H4*$G$1/$I$1</f>
+        <v>191.7782753876543</v>
+      </c>
+      <c r="J4" s="79">
+        <v>14.59</v>
+      </c>
+      <c r="K4" s="79">
+        <v>18.52</v>
+      </c>
+      <c r="L4" s="79">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="M4" s="79">
+        <v>2.76</v>
+      </c>
+      <c r="N4" s="84">
+        <f>M4/J4</f>
+        <v>0.18917066483893077</v>
+      </c>
+      <c r="O4" s="85">
+        <f>MAX(J4:J7)/MIN(J4:J7)</f>
+        <v>5.2515421521590131</v>
+      </c>
+      <c r="P4" s="85">
+        <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
+        <v>1.7305524239007892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="64">
+        <f t="shared" ref="D5:D8" si="0">$C$1*$E$1/1000000</f>
+        <v>5.28</v>
+      </c>
+      <c r="E5" s="79">
+        <v>3.2777777777777777</v>
+      </c>
+      <c r="F5" s="79">
+        <v>3.2777777777777777</v>
+      </c>
+      <c r="G5" s="79">
+        <v>0.18194444444444446</v>
+      </c>
+      <c r="H5" s="79">
+        <v>0.68816666666666659</v>
+      </c>
+      <c r="I5" s="63">
+        <f t="shared" ref="I5:I7" si="1">100*D5*F5*G5*H5*$G$1/$I$1</f>
+        <v>180.57790689300413</v>
+      </c>
+      <c r="J5" s="79">
+        <v>14.85</v>
+      </c>
+      <c r="K5" s="79">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="L5" s="79">
+        <v>11.81</v>
+      </c>
+      <c r="M5" s="79">
+        <v>2.44</v>
+      </c>
+      <c r="N5" s="84">
+        <f t="shared" ref="N5:N7" si="2">M5/J5</f>
+        <v>0.16430976430976432</v>
+      </c>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="64">
+        <f t="shared" si="0"/>
+        <v>5.28</v>
+      </c>
+      <c r="E6" s="79">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F6" s="79">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G6" s="79">
+        <v>0.24261111111111111</v>
+      </c>
+      <c r="H6" s="79">
+        <v>0.71054444444444431</v>
+      </c>
+      <c r="I6" s="63">
+        <f t="shared" si="1"/>
+        <v>316.04095812757191</v>
+      </c>
+      <c r="J6" s="79">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="K6" s="79">
+        <v>103.04</v>
+      </c>
+      <c r="L6" s="79">
+        <v>43.41</v>
+      </c>
+      <c r="M6" s="79">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="N6" s="84">
+        <f t="shared" si="2"/>
+        <v>0.24128256513026053</v>
+      </c>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="64">
+        <f>$C$1*$E$1/1000000*A7</f>
+        <v>4.2240000000000002</v>
+      </c>
+      <c r="E7" s="79">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F7" s="79">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0.22837777777777782</v>
+      </c>
+      <c r="H7" s="79">
+        <v>0.61786851851851843</v>
+      </c>
+      <c r="I7" s="63">
+        <f t="shared" si="1"/>
+        <v>173.84436511670782</v>
+      </c>
+      <c r="J7" s="79">
+        <v>76.62</v>
+      </c>
+      <c r="K7" s="79">
+        <v>107.45</v>
+      </c>
+      <c r="L7" s="79">
+        <v>44.243333333333332</v>
+      </c>
+      <c r="M7" s="79">
+        <v>20.46</v>
+      </c>
+      <c r="N7" s="84">
+        <f t="shared" si="2"/>
+        <v>0.26703210649960846</v>
+      </c>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77">
+        <f>SUM(I4:I7)</f>
+        <v>862.24150552493825</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4889,7 +5463,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4901,10 +5475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4948,8 +5522,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -5624,7 +6198,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F15"/>
+      <selection activeCell="L18" sqref="L18:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5638,10 +6212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5685,8 +6259,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6312,7 +6886,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6326,10 +6900,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6373,8 +6947,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6999,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7016,10 +7590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7063,8 +7637,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7729,10 +8303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7773,8 +8347,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8132,40 +8706,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="70"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8196,7 +8770,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="70"/>
+      <c r="N3" s="73"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A438D-93C8-4AE6-A138-0A1B5A932E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691DE5E4-980C-4BBF-94C8-6848B97698FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -972,13 +972,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,6 +1017,24 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,45 +1045,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,8 +1429,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="44">
-        <f t="shared" ref="Q2:Q20" si="0">H2/P2</f>
+        <f>H2/P2</f>
         <v>0.4375</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="Q3" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q3:Q20" si="0">H3/P3</f>
         <v>0.5625</v>
       </c>
     </row>
@@ -2442,22 +2442,22 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="73">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="73">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="73">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="69" ph="1">
+      <c r="P21" s="76" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="69">
+      <c r="Q21" s="76">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
@@ -2499,11 +2499,11 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="70" ph="1"/>
-      <c r="Q22" s="70" ph="1">
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="77" ph="1"/>
+      <c r="Q22" s="77" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2688,22 +2688,22 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="68">
+      <c r="M26" s="75">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="68">
+      <c r="N26" s="75">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="66">
+      <c r="O26" s="73">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="69" ph="1">
+      <c r="P26" s="76" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="69">
+      <c r="Q26" s="76">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
@@ -2745,11 +2745,11 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="70" ph="1"/>
-      <c r="Q27" s="70" ph="1">
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="77" ph="1"/>
+      <c r="Q27" s="77" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -2934,22 +2934,22 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="67">
+      <c r="M31" s="74">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="67">
+      <c r="N31" s="74">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="67">
+      <c r="O31" s="74">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="69" ph="1">
+      <c r="P31" s="76" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="69">
+      <c r="Q31" s="76">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
@@ -2991,11 +2991,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="70" ph="1"/>
-      <c r="Q32" s="70" ph="1">
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="77" ph="1"/>
+      <c r="Q32" s="77" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3461,339 +3461,340 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="78">
+      <c r="C1" s="67">
         <v>3200</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="78">
+      <c r="E1" s="67">
         <v>1650</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="78">
+      <c r="G1" s="67">
         <v>0.85</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="78">
+      <c r="I1" s="67">
         <v>1.02</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="80"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="69" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <f>$C$1*$E$1/1000000</f>
         <v>5.28</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="68">
         <v>3.4444444444444446</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="68">
         <v>3.4444444444444446</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="68">
         <v>0.18170000000000003</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="68">
         <v>0.69642222222222216</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="72">
         <f>100*D4*F4*G4*H4*$G$1/$I$1</f>
         <v>191.7782753876543</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="68">
         <v>14.59</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="68">
         <v>18.52</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="68">
         <v>10.210000000000001</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="68">
         <v>2.76</v>
       </c>
-      <c r="N4" s="84">
+      <c r="N4" s="71">
         <f>M4/J4</f>
         <v>0.18917066483893077</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="81">
         <f>MAX(J4:J7)/MIN(J4:J7)</f>
         <v>5.2515421521590131</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="81">
         <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
         <v>1.7305524239007892</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="79" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="64">
-        <f t="shared" ref="D5:D8" si="0">$C$1*$E$1/1000000</f>
+      <c r="D5" s="63">
+        <f t="shared" ref="D5:D6" si="0">$C$1*$E$1/1000000</f>
         <v>5.28</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="68">
         <v>3.2777777777777777</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="68">
         <v>3.2777777777777777</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="68">
         <v>0.18194444444444446</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="68">
         <v>0.68816666666666659</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="72">
         <f t="shared" ref="I5:I7" si="1">100*D5*F5*G5*H5*$G$1/$I$1</f>
         <v>180.57790689300413</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="68">
         <v>14.85</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="68">
         <v>19.350000000000001</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="68">
         <v>11.81</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="68">
         <v>2.44</v>
       </c>
-      <c r="N5" s="84">
+      <c r="N5" s="71">
         <f t="shared" ref="N5:N7" si="2">M5/J5</f>
         <v>0.16430976430976432</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <f t="shared" si="0"/>
         <v>5.28</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="68">
         <v>4.166666666666667</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="68">
         <v>4.166666666666667</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="68">
         <v>0.24261111111111111</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="68">
         <v>0.71054444444444431</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="72">
         <f t="shared" si="1"/>
         <v>316.04095812757191</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="68">
         <v>74.849999999999994</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="68">
         <v>103.04</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="68">
         <v>43.41</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="68">
         <v>18.059999999999999</v>
       </c>
-      <c r="N6" s="84">
+      <c r="N6" s="71">
         <f t="shared" si="2"/>
         <v>0.24128256513026053</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="70">
         <v>0.8</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <f>$C$1*$E$1/1000000*A7</f>
         <v>4.2240000000000002</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="68">
         <v>4.166666666666667</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="68">
         <v>3.5</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="68">
         <v>0.22837777777777782</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="68">
         <v>0.61786851851851843</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="72">
         <f t="shared" si="1"/>
         <v>173.84436511670782</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="68">
         <v>76.62</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="68">
         <v>107.45</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="68">
         <v>44.243333333333332</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="68">
         <v>20.46</v>
       </c>
-      <c r="N7" s="84">
+      <c r="N7" s="71">
         <f t="shared" si="2"/>
         <v>0.26703210649960846</v>
       </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="75" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77">
+      <c r="C8" s="79"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66">
         <f>SUM(I4:I7)</f>
         <v>862.24150552493825</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5475,10 +5476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5522,8 +5523,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6212,10 +6213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6259,8 +6260,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6900,10 +6901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6947,8 +6948,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7590,10 +7591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7637,8 +7638,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8303,10 +8304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8347,8 +8348,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8706,40 +8707,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="73"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8770,7 +8771,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="73"/>
+      <c r="N3" s="86"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691DE5E4-980C-4BBF-94C8-6848B97698FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79E431-CF2D-4ACD-8E54-55F9DC7CE6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -483,6 +483,18 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>试注</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>试采</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +640,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -802,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,6 +1020,12 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,15 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,6 +1050,9 @@
     <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,6 +1063,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,11 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1464,7 @@
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1492,8 +1516,11 @@
       <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -1589,7 +1616,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -1637,7 +1664,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -1684,8 +1711,11 @@
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -1733,7 +1763,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -1781,7 +1811,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -1829,7 +1859,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>3</v>
       </c>
@@ -1973,7 +2003,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>3</v>
       </c>
@@ -2021,7 +2051,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>3</v>
       </c>
@@ -2069,7 +2099,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>4</v>
       </c>
@@ -2116,8 +2146,11 @@
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>4</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>4</v>
       </c>
@@ -2213,7 +2246,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>4</v>
       </c>
@@ -2261,7 +2294,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>5</v>
       </c>
@@ -2309,7 +2342,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>5</v>
       </c>
@@ -2357,7 +2390,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>5</v>
       </c>
@@ -2405,7 +2438,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>5</v>
       </c>
@@ -2442,27 +2475,27 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="73">
+      <c r="M21" s="75">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="73">
+      <c r="N21" s="75">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="73">
+      <c r="O21" s="75">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="76" ph="1">
+      <c r="P21" s="73" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="73">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>5</v>
       </c>
@@ -2499,15 +2532,15 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="77" ph="1"/>
-      <c r="Q22" s="77" ph="1">
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="74" ph="1"/>
+      <c r="Q22" s="74" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -2555,7 +2588,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>6</v>
       </c>
@@ -2603,7 +2636,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>6</v>
       </c>
@@ -2651,7 +2684,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>6</v>
       </c>
@@ -2688,27 +2721,27 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="75">
+      <c r="M26" s="77">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="75">
+      <c r="N26" s="77">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="73">
+      <c r="O26" s="75">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="76" ph="1">
+      <c r="P26" s="73" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="73">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>6</v>
       </c>
@@ -2745,15 +2778,15 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="77" ph="1"/>
-      <c r="Q27" s="77" ph="1">
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="74" ph="1"/>
+      <c r="Q27" s="74" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>7</v>
       </c>
@@ -2801,7 +2834,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>7</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>7</v>
       </c>
@@ -2896,8 +2929,11 @@
         <f>H30/P30</f>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>7</v>
       </c>
@@ -2934,27 +2970,27 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="74">
+      <c r="M31" s="76">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="76">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="74">
+      <c r="O31" s="76">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="76" ph="1">
+      <c r="P31" s="73" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="73">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>7</v>
       </c>
@@ -2991,15 +3027,15 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="77" ph="1"/>
-      <c r="Q32" s="77" ph="1">
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="74" ph="1"/>
+      <c r="Q32" s="74" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>8</v>
       </c>
@@ -3047,7 +3083,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>8</v>
       </c>
@@ -3094,8 +3130,11 @@
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>8</v>
       </c>
@@ -3143,7 +3182,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>8</v>
       </c>
@@ -3191,7 +3230,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>9</v>
       </c>
@@ -3239,7 +3278,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>9</v>
       </c>
@@ -3287,7 +3326,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>9</v>
       </c>
@@ -3335,7 +3374,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>9</v>
       </c>
@@ -3383,7 +3422,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.25">
@@ -3429,18 +3468,7 @@
       <c r="O58" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q40" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <iconFilter iconSet="3Arrows"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
@@ -3450,6 +3478,12 @@
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3460,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F121673-7E25-4FF4-BB2B-3BF64F8C01D4}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3509,40 +3543,40 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="78"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="69" t="s">
         <v>102</v>
       </c>
@@ -3573,7 +3607,7 @@
       <c r="M3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="69" t="s">
         <v>115</v>
       </c>
@@ -3583,7 +3617,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -3625,18 +3659,18 @@
         <f>M4/J4</f>
         <v>0.18917066483893077</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="80">
         <f>MAX(J4:J7)/MIN(J4:J7)</f>
         <v>5.2515421521590131</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="80">
         <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
         <v>1.7305524239007892</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
-      <c r="B5" s="80"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="68" t="s">
         <v>119</v>
       </c>
@@ -3676,12 +3710,12 @@
         <f t="shared" ref="N5:N7" si="2">M5/J5</f>
         <v>0.16430976430976432</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -3723,14 +3757,14 @@
         <f t="shared" si="2"/>
         <v>0.24128256513026053</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>0.8</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3770,15 +3804,15 @@
         <f t="shared" si="2"/>
         <v>0.26703210649960846</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -3798,17 +3832,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79E431-CF2D-4ACD-8E54-55F9DC7CE6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C07C16-3815-4515-A4BF-858A2B48D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="131">
   <si>
     <t>序号</t>
   </si>
@@ -486,15 +486,22 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>试注</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>试采</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>地层水</t>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,6 +1027,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1065,11 +1075,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1462,9 +1474,10 @@
     <col min="1" max="1" width="9" style="24"/>
     <col min="12" max="12" width="13"/>
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="18" max="19" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1516,11 +1529,14 @@
       <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1567,8 +1583,11 @@
         <f>H2/P2</f>
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -1615,8 +1634,11 @@
         <f t="shared" ref="Q3:Q20" si="0">H3/P3</f>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -1663,8 +1685,11 @@
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -1712,10 +1737,13 @@
         <v>0.5625</v>
       </c>
       <c r="R5" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -1763,7 +1791,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -1811,7 +1839,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -1859,7 +1887,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2</v>
       </c>
@@ -1907,7 +1935,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3</v>
       </c>
@@ -1954,8 +1982,11 @@
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>3</v>
       </c>
@@ -2002,8 +2033,11 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>3</v>
       </c>
@@ -2050,8 +2084,11 @@
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>3</v>
       </c>
@@ -2098,8 +2135,11 @@
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>4</v>
       </c>
@@ -2147,10 +2187,10 @@
         <v>0.4375</v>
       </c>
       <c r="R14" s="90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>4</v>
       </c>
@@ -2198,7 +2238,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>4</v>
       </c>
@@ -2246,7 +2286,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>4</v>
       </c>
@@ -2294,7 +2334,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>5</v>
       </c>
@@ -2342,7 +2382,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>5</v>
       </c>
@@ -2390,7 +2430,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>5</v>
       </c>
@@ -2438,7 +2478,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>5</v>
       </c>
@@ -2475,27 +2515,29 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="75">
+      <c r="M21" s="76">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="75">
+      <c r="N21" s="76">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="75">
+      <c r="O21" s="76">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="73" ph="1">
+      <c r="P21" s="74" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="73">
+      <c r="Q21" s="74">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>5</v>
       </c>
@@ -2532,15 +2574,15 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="74" ph="1"/>
-      <c r="Q22" s="74" ph="1">
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="75" ph="1"/>
+      <c r="Q22" s="75" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -2588,7 +2630,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>6</v>
       </c>
@@ -2636,7 +2678,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>6</v>
       </c>
@@ -2684,7 +2726,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>6</v>
       </c>
@@ -2721,27 +2763,27 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="78">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="78">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="75">
+      <c r="O26" s="76">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="73" ph="1">
+      <c r="P26" s="74" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="74">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>6</v>
       </c>
@@ -2778,15 +2820,15 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="74" ph="1"/>
-      <c r="Q27" s="74" ph="1">
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="75" ph="1"/>
+      <c r="Q27" s="75" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>7</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>7</v>
       </c>
@@ -2882,7 +2924,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>7</v>
       </c>
@@ -2930,10 +2972,10 @@
         <v>0.5625</v>
       </c>
       <c r="R30" s="89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>7</v>
       </c>
@@ -2970,27 +3012,27 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="77">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="77">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="77">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="73" ph="1">
+      <c r="P31" s="74" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="73">
+      <c r="Q31" s="74">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>7</v>
       </c>
@@ -3027,11 +3069,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="74" ph="1"/>
-      <c r="Q32" s="74" ph="1">
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="75" ph="1"/>
+      <c r="Q32" s="75" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3173,7 @@
         <v>0.5625</v>
       </c>
       <c r="R34" s="89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3543,40 +3585,40 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="83"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="69" t="s">
         <v>102</v>
       </c>
@@ -3607,7 +3649,7 @@
       <c r="M3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="83"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="69" t="s">
         <v>115</v>
       </c>
@@ -3617,7 +3659,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -3659,18 +3701,18 @@
         <f>M4/J4</f>
         <v>0.18917066483893077</v>
       </c>
-      <c r="O4" s="80">
+      <c r="O4" s="81">
         <f>MAX(J4:J7)/MIN(J4:J7)</f>
         <v>5.2515421521590131</v>
       </c>
-      <c r="P4" s="80">
+      <c r="P4" s="81">
         <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
         <v>1.7305524239007892</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
-      <c r="B5" s="79"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="68" t="s">
         <v>119</v>
       </c>
@@ -3710,12 +3752,12 @@
         <f t="shared" ref="N5:N7" si="2">M5/J5</f>
         <v>0.16430976430976432</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="80" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -3757,14 +3799,14 @@
         <f t="shared" si="2"/>
         <v>0.24128256513026053</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>0.8</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3804,15 +3846,15 @@
         <f t="shared" si="2"/>
         <v>0.26703210649960846</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -5510,10 +5552,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5557,8 +5599,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6247,10 +6289,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6294,8 +6336,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6935,10 +6977,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6982,8 +7024,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7625,10 +7667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7672,8 +7714,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8338,10 +8380,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8382,8 +8424,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8741,40 +8783,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8805,7 +8847,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="87"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C07C16-3815-4515-A4BF-858A2B48D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3F904-9825-49A6-8C51-832612F75438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,11 +1030,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,6 +1046,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,9 +1072,6 @@
     <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,15 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1463,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1478,7 @@
     <col min="18" max="19" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1529,14 +1530,14 @@
       <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="76" t="s">
         <v>129</v>
       </c>
       <c r="S1" s="65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1586,8 +1587,9 @@
       <c r="R2" s="73" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" s="92"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -1736,14 +1738,14 @@
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="R5" s="90" t="s">
+      <c r="R5" s="75" t="s">
         <v>127</v>
       </c>
       <c r="S5" s="73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -1790,8 +1792,9 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" s="92"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3</v>
       </c>
@@ -1985,8 +1988,9 @@
       <c r="R10" s="73" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10" s="92"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>3</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>3</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>3</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>4</v>
       </c>
@@ -2186,11 +2190,12 @@
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="R14" s="90" t="s">
+      <c r="R14" s="75" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" s="92"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>4</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>4</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>4</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>5</v>
       </c>
@@ -2381,8 +2386,9 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18" s="92"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>5</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>5</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>5</v>
       </c>
@@ -2515,29 +2521,30 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="77">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="77">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="77">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="74" ph="1">
+      <c r="P21" s="80" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="74">
+      <c r="Q21" s="80">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21" s="92"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>5</v>
       </c>
@@ -2574,15 +2581,16 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="75" ph="1"/>
-      <c r="Q22" s="75" ph="1">
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="81" ph="1"/>
+      <c r="Q22" s="81" ph="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22" s="92"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>6</v>
       </c>
@@ -2629,8 +2637,9 @@
         <f>H23/P23</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23" s="92"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>6</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>6</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>6</v>
       </c>
@@ -2763,27 +2772,27 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="78">
+      <c r="M26" s="79">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="78">
+      <c r="N26" s="79">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="77">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="74" ph="1">
+      <c r="P26" s="80" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="74">
+      <c r="Q26" s="80">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>6</v>
       </c>
@@ -2820,15 +2829,15 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="75" ph="1"/>
-      <c r="Q27" s="75" ph="1">
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="81" ph="1"/>
+      <c r="Q27" s="81" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>7</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>7</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>7</v>
       </c>
@@ -2971,11 +2980,11 @@
         <f>H30/P30</f>
         <v>0.5625</v>
       </c>
-      <c r="R30" s="89" t="s">
+      <c r="R30" s="74" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>7</v>
       </c>
@@ -3012,27 +3021,27 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="78">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="78">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="78">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="74" ph="1">
+      <c r="P31" s="80" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="74">
+      <c r="Q31" s="80">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>7</v>
       </c>
@@ -3069,11 +3078,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="75" ph="1"/>
-      <c r="Q32" s="75" ph="1">
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="81" ph="1"/>
+      <c r="Q32" s="81" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3172,7 +3181,7 @@
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
-      <c r="R34" s="89" t="s">
+      <c r="R34" s="74" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3511,6 +3520,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
@@ -3520,12 +3535,6 @@
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3585,40 +3594,40 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="84"/>
+      <c r="P2" s="82"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="69" t="s">
         <v>102</v>
       </c>
@@ -3649,7 +3658,7 @@
       <c r="M3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="84"/>
+      <c r="N3" s="82"/>
       <c r="O3" s="69" t="s">
         <v>115</v>
       </c>
@@ -3659,7 +3668,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="84" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -3701,18 +3710,18 @@
         <f>M4/J4</f>
         <v>0.18917066483893077</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="85">
         <f>MAX(J4:J7)/MIN(J4:J7)</f>
         <v>5.2515421521590131</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="85">
         <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
         <v>1.7305524239007892</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
-      <c r="B5" s="80"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="68" t="s">
         <v>119</v>
       </c>
@@ -3752,12 +3761,12 @@
         <f t="shared" ref="N5:N7" si="2">M5/J5</f>
         <v>0.16430976430976432</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -3799,14 +3808,14 @@
         <f t="shared" si="2"/>
         <v>0.24128256513026053</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>0.8</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="68" t="s">
         <v>120</v>
       </c>
@@ -3846,15 +3855,15 @@
         <f t="shared" si="2"/>
         <v>0.26703210649960846</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -3874,17 +3883,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,15 +3902,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CA612-A682-4C4A-B463-69A4C7353876}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="44">
         <v>1</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
         <v>1</v>
       </c>
@@ -4120,8 +4129,10 @@
       <c r="N5" s="44">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>2</v>
       </c>
@@ -4165,7 +4176,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>2</v>
       </c>
@@ -4209,7 +4220,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>2</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>2</v>
       </c>
@@ -4296,8 +4307,10 @@
       <c r="N9" s="44">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>3</v>
       </c>
@@ -4341,7 +4354,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>3</v>
       </c>
@@ -4385,7 +4398,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
         <v>3</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>3</v>
       </c>
@@ -4472,8 +4485,10 @@
       <c r="N13" s="44">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>4</v>
       </c>
@@ -4517,7 +4532,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="44">
         <v>4</v>
       </c>
@@ -4561,7 +4576,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>4</v>
       </c>
@@ -4605,7 +4620,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>4</v>
       </c>
@@ -4648,8 +4663,10 @@
       <c r="N17" s="44">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
         <v>5</v>
       </c>
@@ -4693,7 +4710,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>5</v>
       </c>
@@ -4737,7 +4754,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>5</v>
       </c>
@@ -4781,7 +4798,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>5</v>
       </c>
@@ -4824,8 +4841,10 @@
       <c r="N21" s="60">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>6</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>6</v>
       </c>
@@ -4913,7 +4932,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
         <v>6</v>
       </c>
@@ -4957,7 +4976,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="60">
         <v>6</v>
       </c>
@@ -5000,8 +5019,10 @@
       <c r="N25" s="60">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
         <v>7</v>
       </c>
@@ -5045,7 +5066,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="44">
         <v>7</v>
       </c>
@@ -5089,7 +5110,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <v>7</v>
       </c>
@@ -5133,7 +5154,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>7</v>
       </c>
@@ -5176,8 +5197,10 @@
       <c r="N29" s="60">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <v>8</v>
       </c>
@@ -5221,7 +5244,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <v>8</v>
       </c>
@@ -5265,7 +5288,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="44">
         <v>8</v>
       </c>
@@ -5309,7 +5332,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <v>8</v>
       </c>
@@ -5352,8 +5375,10 @@
       <c r="N33" s="44">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
         <v>9</v>
       </c>
@@ -5397,7 +5422,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <v>9</v>
       </c>
@@ -5441,7 +5466,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
         <v>9</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44">
         <v>9</v>
       </c>
@@ -5528,6 +5553,8 @@
       <c r="N37" s="44">
         <v>0.5625</v>
       </c>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -5552,10 +5579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5599,8 +5626,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6289,10 +6316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6336,8 +6363,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6977,10 +7004,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7024,8 +7051,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7667,10 +7694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7714,8 +7741,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8380,10 +8407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8424,8 +8451,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8783,40 +8810,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="87"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8847,7 +8874,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="87"/>
+      <c r="N3" s="90"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3F904-9825-49A6-8C51-832612F75438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD931EB-5459-4CED-BC10-D716D53027BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1039,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,15 +1053,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,6 +1070,9 @@
     <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1466,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1588,7 @@
       <c r="R2" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="92"/>
+      <c r="U2" s="77"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
@@ -1792,7 +1793,7 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="U6" s="92"/>
+      <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
@@ -1988,7 +1989,7 @@
       <c r="R10" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="92"/>
+      <c r="U10" s="77"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -2193,7 +2194,7 @@
       <c r="R14" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="U14" s="92"/>
+      <c r="U14" s="77"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
@@ -2386,7 +2387,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="U18" s="92"/>
+      <c r="U18" s="77"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
@@ -2521,28 +2522,28 @@
       <c r="L21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="80">
         <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="80">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="80">
         <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="80" ph="1">
+      <c r="P21" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="78">
         <f>H21/P21</f>
         <v>0.25</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="U21" s="92"/>
+      <c r="U21" s="77"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
@@ -2581,14 +2582,14 @@
       <c r="L22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="81" ph="1"/>
-      <c r="Q22" s="81" ph="1">
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="79" ph="1"/>
+      <c r="Q22" s="79" ph="1">
         <v>0</v>
       </c>
-      <c r="U22" s="92"/>
+      <c r="U22" s="77"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
@@ -2637,7 +2638,7 @@
         <f>H23/P23</f>
         <v>0.25</v>
       </c>
-      <c r="U23" s="92"/>
+      <c r="U23" s="77"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
@@ -2772,22 +2773,22 @@
       <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="79">
+      <c r="M26" s="82">
         <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="79">
+      <c r="N26" s="82">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="80">
         <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="80" ph="1">
+      <c r="P26" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="80">
+      <c r="Q26" s="78">
         <f>H26/P26</f>
         <v>0.125</v>
       </c>
@@ -2829,11 +2830,11 @@
       <c r="L27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="81" ph="1"/>
-      <c r="Q27" s="81" ph="1">
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="79" ph="1"/>
+      <c r="Q27" s="79" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3021,22 +3022,22 @@
       <c r="L31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="78">
+      <c r="M31" s="81">
         <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="78">
+      <c r="N31" s="81">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="78">
+      <c r="O31" s="81">
         <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="80" ph="1">
+      <c r="P31" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="80">
+      <c r="Q31" s="78">
         <f>H31/P31</f>
         <v>0.125</v>
       </c>
@@ -3078,11 +3079,11 @@
       <c r="L32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="81" ph="1"/>
-      <c r="Q32" s="81" ph="1">
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="79" ph="1"/>
+      <c r="Q32" s="79" ph="1">
         <v>0</v>
       </c>
     </row>
@@ -3520,12 +3521,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
@@ -3535,6 +3530,12 @@
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q31:Q32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3545,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F121673-7E25-4FF4-BB2B-3BF64F8C01D4}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3594,40 +3595,40 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="82"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="69" t="s">
         <v>102</v>
       </c>
@@ -3658,7 +3659,7 @@
       <c r="M3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="82"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="69" t="s">
         <v>115</v>
       </c>
@@ -3869,11 +3870,14 @@
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="66">
+      <c r="I8" s="72">
         <f>SUM(I4:I7)</f>
         <v>862.24150552493825</v>
       </c>
-      <c r="J8" s="66"/>
+      <c r="J8" s="93">
+        <f>AVERAGE(J4:J7)</f>
+        <v>45.227499999999999</v>
+      </c>
       <c r="K8" s="66"/>
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
@@ -3883,17 +3887,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,7 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9CA612-A682-4C4A-B463-69A4C7353876}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -4129,8 +4133,8 @@
       <c r="N5" s="44">
         <v>0.5625</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
@@ -4307,8 +4311,8 @@
       <c r="N9" s="44">
         <v>0.5625</v>
       </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
@@ -4485,8 +4489,8 @@
       <c r="N13" s="44">
         <v>0.5625</v>
       </c>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
@@ -4663,8 +4667,8 @@
       <c r="N17" s="44">
         <v>0.625</v>
       </c>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
@@ -4841,8 +4845,8 @@
       <c r="N21" s="60">
         <v>0.25</v>
       </c>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
@@ -5019,8 +5023,8 @@
       <c r="N25" s="60">
         <v>0.125</v>
       </c>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
@@ -5197,8 +5201,8 @@
       <c r="N29" s="60">
         <v>0.125</v>
       </c>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
@@ -5375,8 +5379,8 @@
       <c r="N33" s="44">
         <v>0.5625</v>
       </c>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
@@ -5553,8 +5557,8 @@
       <c r="N37" s="44">
         <v>0.5625</v>
       </c>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -5566,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5579,10 +5583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5626,8 +5630,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6316,10 +6320,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6363,8 +6367,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7004,10 +7008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7051,8 +7055,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -7694,10 +7698,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7741,8 +7745,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8407,10 +8411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8451,8 +8455,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8810,40 +8814,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8874,7 +8878,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="90"/>
+      <c r="N3" s="91"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>

--- a/Excel/表2单井测井解释数据.xlsx
+++ b/Excel/表2单井测井解释数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD931EB-5459-4CED-BC10-D716D53027BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF1A28D-08E5-4ABF-BD16-F2B751C54E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表2-1 单井测井解释数据" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="储量计算" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表2-1 单井测井解释数据'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表2-1 单井测井解释数据'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="135">
   <si>
     <t>序号</t>
   </si>
@@ -320,39 +320,39 @@
   </si>
   <si>
     <t>Y_change(m)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Y(m)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Y_change</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平均孔隙度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平均渗透率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>范围X</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>范围Y</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>体积系数Boi</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,130 +379,146 @@
       </rPr>
       <t>o</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>砂组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>小层</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>面积/Km2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>砂厚/m</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有效厚度/m</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>孔隙度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>饱和度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>储量/10^4t</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最大</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最小</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>偏差</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>渗透率变化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>物性参数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>平面变异系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>级差</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>突进系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>层间非均质性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K1_1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K1_2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K2_2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K2_1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>试注</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>试采</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>地层水</t>
   </si>
   <si>
     <t>备注1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>备注2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂层底(米)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂层顶(米)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂岩厚度(米)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效厚度(米)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,7 +530,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,13 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -577,11 +586,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -827,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,92 +898,80 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1003,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,10 +1004,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1030,22 +1022,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,10 +1042,19 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,9 +1064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1085,7 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1465,2079 +1457,1955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="12" max="12" width="13"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="18" max="19" width="9" style="73"/>
+    <col min="11" max="11" width="13"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="17" max="18" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="Q1" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="R1" s="61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="32">
+      <c r="D2" s="29">
         <v>2931</v>
       </c>
-      <c r="F2" s="32">
+      <c r="E2" s="29">
         <v>2934.5</v>
       </c>
-      <c r="G2" s="32">
+      <c r="F2" s="29">
         <v>3.5</v>
       </c>
-      <c r="H2" s="32">
+      <c r="G2" s="29">
         <v>3.5</v>
       </c>
-      <c r="I2" s="44">
+      <c r="H2" s="40">
         <v>18.010000000000002</v>
       </c>
-      <c r="J2" s="44">
+      <c r="I2" s="40">
         <v>12.69</v>
       </c>
-      <c r="K2" s="32">
+      <c r="J2" s="29">
         <v>78.099999999999994</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44">
+      <c r="K2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40">
         <v>8</v>
       </c>
-      <c r="Q2" s="44">
-        <f>H2/P2</f>
+      <c r="P2" s="40">
+        <f>G2/O2</f>
         <v>0.4375</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="77"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32">
+      <c r="D3" s="29">
         <v>2940</v>
       </c>
-      <c r="F3" s="32">
+      <c r="E3" s="29">
         <v>2944.5</v>
       </c>
-      <c r="G3" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I3" s="44">
+      <c r="F3" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="40">
         <v>17.600000000000001</v>
       </c>
-      <c r="J3" s="44">
+      <c r="I3" s="40">
         <v>13.95</v>
       </c>
-      <c r="K3" s="32">
+      <c r="J3" s="29">
         <v>76.34</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44">
+      <c r="K3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40">
         <v>8</v>
       </c>
-      <c r="Q3" s="44">
-        <f t="shared" ref="Q3:Q20" si="0">H3/P3</f>
+      <c r="P3" s="40">
+        <f t="shared" ref="P3:P20" si="0">G3/O3</f>
         <v>0.5625</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="32">
+      <c r="D4" s="29">
         <v>2948</v>
       </c>
-      <c r="F4" s="32">
+      <c r="E4" s="29">
         <v>2952.5</v>
       </c>
-      <c r="G4" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H4" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="F4" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="40">
         <v>26.55</v>
       </c>
-      <c r="J4" s="44">
+      <c r="I4" s="40">
         <v>89.96</v>
       </c>
-      <c r="K4" s="32">
+      <c r="J4" s="29">
         <v>74.84</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44">
+      <c r="K4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>8</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="P4" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>1</v>
-      </c>
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="32">
+      <c r="D5" s="29">
         <v>2956</v>
       </c>
-      <c r="F5" s="32">
+      <c r="E5" s="29">
         <v>2960.5</v>
       </c>
-      <c r="G5" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="44">
+      <c r="F5" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="40">
         <v>22.21</v>
       </c>
-      <c r="J5" s="44">
+      <c r="I5" s="40">
         <v>92.45</v>
       </c>
-      <c r="K5" s="32">
+      <c r="J5" s="29">
         <v>77.89</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44">
+      <c r="K5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40">
         <v>8</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="P5" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="Q5" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="R5" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="35">
+      <c r="D6" s="32">
         <v>2986</v>
       </c>
-      <c r="F6" s="35">
+      <c r="E6" s="32">
         <v>2991</v>
       </c>
-      <c r="G6" s="35">
+      <c r="F6" s="32">
         <v>5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="G6" s="32">
         <v>5</v>
       </c>
-      <c r="I6" s="44">
+      <c r="H6" s="40">
         <v>23.31</v>
       </c>
-      <c r="J6" s="44">
+      <c r="I6" s="40">
         <v>18.52</v>
       </c>
-      <c r="K6" s="32">
+      <c r="J6" s="29">
         <v>71.83</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44">
+      <c r="K6" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40">
         <v>8</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="P6" s="40">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="U6" s="77"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="T6" s="73"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35">
+      <c r="D7" s="32">
         <v>2995</v>
       </c>
-      <c r="F7" s="35">
+      <c r="E7" s="32">
         <v>2998.5</v>
+      </c>
+      <c r="F7" s="29">
+        <v>3.5</v>
       </c>
       <c r="G7" s="32">
         <v>3.5</v>
       </c>
-      <c r="H7" s="35">
-        <v>3.5</v>
-      </c>
-      <c r="I7" s="44">
+      <c r="H7" s="40">
         <v>20.77</v>
       </c>
-      <c r="J7" s="44">
+      <c r="I7" s="40">
         <v>17.95</v>
       </c>
-      <c r="K7" s="32">
+      <c r="J7" s="29">
         <v>72.180000000000007</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44">
+      <c r="K7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40">
         <v>8</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="P7" s="40">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>2</v>
-      </c>
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="35">
+      <c r="D8" s="32">
         <v>3003</v>
       </c>
-      <c r="F8" s="35">
+      <c r="E8" s="32">
         <v>3006.5</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3.5</v>
       </c>
       <c r="G8" s="32">
         <v>3.5</v>
       </c>
-      <c r="H8" s="35">
-        <v>3.5</v>
-      </c>
-      <c r="I8" s="44">
+      <c r="H8" s="40">
         <v>28.4</v>
       </c>
-      <c r="J8" s="44">
+      <c r="I8" s="40">
         <v>103.04</v>
       </c>
-      <c r="K8" s="32">
+      <c r="J8" s="29">
         <v>71.67</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44">
+      <c r="K8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40">
         <v>8</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="P8" s="40">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>2</v>
-      </c>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="35">
+      <c r="D9" s="32">
         <v>3011</v>
       </c>
-      <c r="F9" s="35">
+      <c r="E9" s="32">
         <v>3015.5</v>
       </c>
+      <c r="F9" s="29">
+        <v>4.5</v>
+      </c>
       <c r="G9" s="32">
         <v>4.5</v>
       </c>
-      <c r="H9" s="35">
-        <v>4.5</v>
-      </c>
-      <c r="I9" s="44">
+      <c r="H9" s="40">
         <v>23.83</v>
       </c>
-      <c r="J9" s="44">
+      <c r="I9" s="40">
         <v>98.65</v>
       </c>
-      <c r="K9" s="32">
+      <c r="J9" s="29">
         <v>70.86</v>
       </c>
-      <c r="L9" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44">
+      <c r="K9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40">
         <v>8</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="P9" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>3</v>
-      </c>
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="32">
+      <c r="D10" s="29">
         <v>2986</v>
       </c>
-      <c r="F10" s="32">
+      <c r="E10" s="29">
         <v>2990.5</v>
       </c>
-      <c r="G10" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H10" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="44">
+      <c r="F10" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="40">
         <v>17.54</v>
       </c>
-      <c r="J10" s="44">
+      <c r="I10" s="40">
         <v>14.21</v>
       </c>
-      <c r="K10" s="32">
+      <c r="J10" s="29">
         <v>67.319999999999993</v>
       </c>
-      <c r="L10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44">
+      <c r="K10" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40">
         <v>8</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="P10" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="R10" s="73" t="s">
+      <c r="Q10" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="77"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>3</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="T10" s="73"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32">
+      <c r="D11" s="29">
         <v>2995</v>
       </c>
-      <c r="F11" s="32">
+      <c r="E11" s="29">
         <v>3000</v>
       </c>
-      <c r="G11" s="32">
+      <c r="F11" s="29">
         <v>5</v>
       </c>
-      <c r="H11" s="32">
+      <c r="G11" s="29">
         <v>5</v>
       </c>
-      <c r="I11" s="44">
+      <c r="H11" s="40">
         <v>15.68</v>
       </c>
-      <c r="J11" s="44">
+      <c r="I11" s="40">
         <v>12.71</v>
       </c>
-      <c r="K11" s="32">
+      <c r="J11" s="29">
         <v>65.28</v>
       </c>
-      <c r="L11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44">
+      <c r="K11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40">
         <v>8</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="P11" s="40">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="R11" s="73" t="s">
+      <c r="Q11" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>3</v>
-      </c>
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="32">
+      <c r="D12" s="29">
         <v>3003</v>
       </c>
-      <c r="F12" s="32">
+      <c r="E12" s="29">
         <v>3006.5</v>
       </c>
-      <c r="G12" s="32">
+      <c r="F12" s="29">
         <v>3.5</v>
       </c>
-      <c r="H12" s="32">
+      <c r="G12" s="29">
         <v>3.5</v>
       </c>
-      <c r="I12" s="44">
+      <c r="H12" s="40">
         <v>22.41</v>
       </c>
-      <c r="J12" s="44">
+      <c r="I12" s="40">
         <v>66.91</v>
       </c>
-      <c r="K12" s="32">
+      <c r="J12" s="29">
         <v>65.66</v>
       </c>
-      <c r="L12" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44">
+      <c r="K12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40">
         <v>8</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="P12" s="40">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="R12" s="73" t="s">
+      <c r="Q12" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <v>3</v>
-      </c>
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="32">
+      <c r="D13" s="29">
         <v>3011</v>
       </c>
-      <c r="F13" s="32">
+      <c r="E13" s="29">
         <v>3015.5</v>
       </c>
-      <c r="G13" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H13" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="44">
+      <c r="F13" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="40">
         <v>19.11</v>
       </c>
-      <c r="J13" s="44">
+      <c r="I13" s="40">
         <v>57.41</v>
       </c>
-      <c r="K13" s="32">
+      <c r="J13" s="29">
         <v>60.76</v>
       </c>
-      <c r="L13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44">
+      <c r="K13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40">
         <v>8</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="P13" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="R13" s="73" t="s">
+      <c r="Q13" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
-        <v>4</v>
-      </c>
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="32">
+      <c r="D14" s="29">
         <v>2961</v>
       </c>
-      <c r="F14" s="32">
+      <c r="E14" s="29">
         <v>2964.5</v>
       </c>
-      <c r="G14" s="32">
+      <c r="F14" s="29">
         <v>3.5</v>
       </c>
-      <c r="H14" s="32">
+      <c r="G14" s="29">
         <v>3.5</v>
       </c>
-      <c r="I14" s="44">
+      <c r="H14" s="40">
         <v>21.54</v>
       </c>
-      <c r="J14" s="44">
+      <c r="I14" s="40">
         <v>16.47</v>
       </c>
-      <c r="K14" s="32">
+      <c r="J14" s="29">
         <v>75.209999999999994</v>
       </c>
-      <c r="L14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44">
+      <c r="K14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40">
         <v>8</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="P14" s="40">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="R14" s="75" t="s">
+      <c r="Q14" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="U14" s="77"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
-        <v>4</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="T14" s="73"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="32">
+      <c r="D15" s="29">
         <v>2970</v>
       </c>
-      <c r="F15" s="32">
+      <c r="E15" s="29">
         <v>2973.5</v>
       </c>
-      <c r="G15" s="32">
+      <c r="F15" s="29">
         <v>3.5</v>
       </c>
-      <c r="H15" s="32">
+      <c r="G15" s="29">
         <v>3.5</v>
       </c>
-      <c r="I15" s="44">
+      <c r="H15" s="40">
         <v>17.649999999999999</v>
       </c>
-      <c r="J15" s="44">
+      <c r="I15" s="40">
         <v>14.89</v>
       </c>
-      <c r="K15" s="32">
+      <c r="J15" s="29">
         <v>74.010000000000005</v>
       </c>
-      <c r="L15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44">
+      <c r="K15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40">
         <v>8</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="P15" s="40">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <v>4</v>
-      </c>
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="32">
+      <c r="D16" s="29">
         <v>2978</v>
       </c>
-      <c r="F16" s="32">
+      <c r="E16" s="29">
         <v>2982.5</v>
       </c>
-      <c r="G16" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H16" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I16" s="44">
+      <c r="F16" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="40">
         <v>25.42</v>
       </c>
-      <c r="J16" s="44">
+      <c r="I16" s="40">
         <v>82.02</v>
       </c>
-      <c r="K16" s="32">
+      <c r="J16" s="29">
         <v>72.88</v>
       </c>
-      <c r="L16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44">
+      <c r="K16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40">
         <v>8</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="P16" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>4</v>
-      </c>
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="32">
+      <c r="D17" s="29">
         <v>2986</v>
       </c>
-      <c r="F17" s="32">
+      <c r="E17" s="29">
         <v>2991</v>
       </c>
-      <c r="G17" s="32">
+      <c r="F17" s="29">
         <v>5</v>
       </c>
-      <c r="H17" s="32">
+      <c r="G17" s="29">
         <v>5</v>
       </c>
-      <c r="I17" s="44">
+      <c r="H17" s="40">
         <v>21.46</v>
       </c>
-      <c r="J17" s="44">
+      <c r="I17" s="40">
         <v>81.66</v>
       </c>
-      <c r="K17" s="32">
+      <c r="J17" s="29">
         <v>71.69</v>
       </c>
-      <c r="L17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44">
+      <c r="K17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40">
         <v>8</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="P17" s="40">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <v>5</v>
-      </c>
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="32">
+      <c r="D18" s="29">
         <v>3031</v>
       </c>
-      <c r="F18" s="32">
+      <c r="E18" s="29">
         <v>3033</v>
       </c>
-      <c r="G18" s="32">
+      <c r="F18" s="29">
         <v>2</v>
       </c>
-      <c r="H18" s="32">
+      <c r="G18" s="29">
         <v>2</v>
       </c>
-      <c r="I18" s="44">
+      <c r="H18" s="40">
         <v>21.46</v>
       </c>
-      <c r="J18" s="44">
+      <c r="I18" s="40">
         <v>15.94</v>
       </c>
-      <c r="K18" s="32">
+      <c r="J18" s="29">
         <v>61.55</v>
       </c>
-      <c r="L18" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44">
+      <c r="K18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40">
         <v>8</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="P18" s="40">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="U18" s="77"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>5</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="T18" s="73"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="32">
+      <c r="D19" s="29">
         <v>3040</v>
       </c>
-      <c r="F19" s="32">
+      <c r="E19" s="29">
         <v>3042</v>
       </c>
-      <c r="G19" s="32">
+      <c r="F19" s="29">
         <v>2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="G19" s="29">
         <v>2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="H19" s="40">
         <v>16.850000000000001</v>
       </c>
-      <c r="J19" s="44">
+      <c r="I19" s="40">
         <v>12.6</v>
       </c>
-      <c r="K19" s="32">
+      <c r="J19" s="29">
         <v>60.57</v>
       </c>
-      <c r="L19" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44">
+      <c r="K19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40">
         <v>8</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="P19" s="40">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <v>5</v>
-      </c>
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="32">
+      <c r="D20" s="29">
         <v>3048</v>
       </c>
-      <c r="F20" s="32">
+      <c r="E20" s="29">
         <v>3052.5</v>
       </c>
-      <c r="G20" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H20" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I20" s="44">
+      <c r="F20" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H20" s="40">
         <v>25.47</v>
       </c>
-      <c r="J20" s="44">
+      <c r="I20" s="40">
         <v>59.73</v>
       </c>
-      <c r="K20" s="32">
+      <c r="J20" s="29">
         <v>69.540000000000006</v>
       </c>
-      <c r="L20" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44">
+      <c r="K20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40">
         <v>8</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="P20" s="40">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <v>5</v>
-      </c>
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="38">
+      <c r="D21" s="35">
         <v>3056</v>
       </c>
-      <c r="F21" s="38">
+      <c r="E21" s="35">
         <v>3058</v>
       </c>
-      <c r="G21" s="38">
+      <c r="F21" s="35">
         <v>2</v>
       </c>
-      <c r="H21" s="38">
+      <c r="G21" s="35">
         <v>2</v>
       </c>
-      <c r="I21" s="47">
+      <c r="H21" s="43">
         <v>20.07</v>
       </c>
-      <c r="J21" s="47">
+      <c r="I21" s="43">
         <v>51.73</v>
       </c>
-      <c r="K21" s="38">
+      <c r="J21" s="35">
         <v>62.68</v>
       </c>
-      <c r="L21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="80">
-        <f t="shared" ref="M21:N21" si="1">($G$21*I21+$G$22*I22)/($G$21+$G$22)</f>
+      <c r="K21" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" ref="L21:M21" si="1">($F$21*H21+$F$22*H22)/($F$21+$F$22)</f>
         <v>22.27</v>
       </c>
-      <c r="N21" s="80">
+      <c r="M21" s="75">
         <f t="shared" si="1"/>
         <v>54.23</v>
       </c>
-      <c r="O21" s="80">
-        <f>($G$21*K21+$G$22*K22)/($G$21+$G$22)</f>
+      <c r="N21" s="75">
+        <f>($F$21*J21+$F$22*J22)/($F$21+$F$22)</f>
         <v>44.215000000000003</v>
       </c>
-      <c r="P21" s="78" ph="1">
+      <c r="O21" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q21" s="78">
-        <f>H21/P21</f>
+      <c r="P21" s="78">
+        <f>G21/O21</f>
         <v>0.25</v>
       </c>
+      <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="U21" s="77"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
-        <v>5</v>
+      <c r="T21" s="73"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="40">
+      <c r="D22" s="37">
         <v>3058</v>
       </c>
-      <c r="F22" s="40">
+      <c r="E22" s="37">
         <v>3060</v>
       </c>
-      <c r="G22" s="40">
+      <c r="F22" s="37">
         <v>2</v>
       </c>
-      <c r="H22" s="40">
+      <c r="G22" s="37">
         <v>0</v>
       </c>
-      <c r="I22" s="49">
+      <c r="H22" s="45">
         <v>24.47</v>
       </c>
-      <c r="J22" s="49">
+      <c r="I22" s="45">
         <v>56.73</v>
       </c>
-      <c r="K22" s="50">
+      <c r="J22" s="46">
         <v>25.75</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="K22" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="79" ph="1"/>
-      <c r="Q22" s="79" ph="1">
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="79" ph="1"/>
+      <c r="P22" s="79" ph="1">
         <v>0</v>
       </c>
-      <c r="U22" s="77"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>6</v>
-      </c>
-      <c r="B23" s="41" t="s">
+      <c r="T22" s="73"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="32">
+      <c r="D23" s="29">
         <v>3031</v>
       </c>
-      <c r="F23" s="32">
+      <c r="E23" s="29">
         <v>3033</v>
       </c>
-      <c r="G23" s="32">
+      <c r="F23" s="29">
         <v>2</v>
       </c>
-      <c r="H23" s="32">
+      <c r="G23" s="29">
         <v>2</v>
       </c>
-      <c r="I23" s="44">
+      <c r="H23" s="40">
         <v>13.73</v>
       </c>
-      <c r="J23" s="44">
+      <c r="I23" s="40">
         <v>10.96</v>
       </c>
-      <c r="K23" s="32">
+      <c r="J23" s="29">
         <v>61.2</v>
       </c>
-      <c r="L23" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44">
+      <c r="K23" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40">
         <v>8</v>
       </c>
-      <c r="Q23" s="44">
-        <f>H23/P23</f>
+      <c r="P23" s="40">
+        <f>G23/O23</f>
         <v>0.25</v>
       </c>
-      <c r="U23" s="77"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
-        <v>6</v>
-      </c>
-      <c r="B24" s="41" t="s">
+      <c r="T23" s="73"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="32">
+      <c r="D24" s="29">
         <v>3040</v>
       </c>
-      <c r="F24" s="32">
+      <c r="E24" s="29">
         <v>3041</v>
       </c>
-      <c r="G24" s="32">
+      <c r="F24" s="29">
         <v>1</v>
       </c>
-      <c r="H24" s="32">
+      <c r="G24" s="29">
         <v>1</v>
       </c>
-      <c r="I24" s="44">
+      <c r="H24" s="40">
         <v>17.25</v>
       </c>
-      <c r="J24" s="44">
+      <c r="I24" s="40">
         <v>11.81</v>
       </c>
-      <c r="K24" s="32">
+      <c r="J24" s="29">
         <v>58.14</v>
       </c>
-      <c r="L24" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44">
+      <c r="K24" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40">
         <v>8</v>
       </c>
-      <c r="Q24" s="44">
-        <f>H24/P24</f>
+      <c r="P24" s="40">
+        <f>G24/O24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>6</v>
-      </c>
-      <c r="B25" s="41" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="32">
+      <c r="D25" s="29">
         <v>3048</v>
       </c>
-      <c r="F25" s="32">
+      <c r="E25" s="29">
         <v>3052.5</v>
       </c>
-      <c r="G25" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H25" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I25" s="44">
+      <c r="F25" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G25" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="40">
         <v>18.47</v>
       </c>
-      <c r="J25" s="44">
+      <c r="I25" s="40">
         <v>43.41</v>
       </c>
-      <c r="K25" s="32">
+      <c r="J25" s="29">
         <v>68.599999999999994</v>
       </c>
-      <c r="L25" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44">
+      <c r="K25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40">
         <v>8</v>
       </c>
-      <c r="Q25" s="44">
-        <f>H25/P25</f>
+      <c r="P25" s="40">
+        <f>G25/O25</f>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>6</v>
-      </c>
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="38">
+      <c r="D26" s="35">
         <v>3056</v>
       </c>
-      <c r="F26" s="38">
+      <c r="E26" s="35">
         <v>3057</v>
       </c>
-      <c r="G26" s="38">
+      <c r="F26" s="35">
         <v>1</v>
       </c>
-      <c r="H26" s="38">
+      <c r="G26" s="35">
         <v>1</v>
       </c>
-      <c r="I26" s="47">
+      <c r="H26" s="43">
         <v>23.47</v>
       </c>
-      <c r="J26" s="47">
+      <c r="I26" s="43">
         <v>48.91</v>
       </c>
-      <c r="K26" s="38">
+      <c r="J26" s="35">
         <v>63.7</v>
       </c>
-      <c r="L26" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="82">
-        <f t="shared" ref="M26:N26" si="2">($G$26*I26+$G$27*I27)/($G$26+$G$27)</f>
+      <c r="K26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="77">
+        <f t="shared" ref="L26:M26" si="2">($F$26*H26+$F$27*H27)/($F$26+$F$27)</f>
         <v>19.536666666666665</v>
       </c>
-      <c r="N26" s="82">
+      <c r="M26" s="77">
         <f t="shared" si="2"/>
         <v>44.243333333333332</v>
       </c>
-      <c r="O26" s="80">
-        <f>($G$26*K26+$G$27*K27)/($G$26+$G$27)</f>
+      <c r="N26" s="75">
+        <f>($F$26*J26+$F$27*J27)/($F$26+$F$27)</f>
         <v>38.4</v>
       </c>
-      <c r="P26" s="78" ph="1">
+      <c r="O26" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q26" s="78">
-        <f>H26/P26</f>
+      <c r="P26" s="78">
+        <f>G26/O26</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>6</v>
-      </c>
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="40">
+      <c r="D27" s="37">
         <v>3057</v>
       </c>
-      <c r="F27" s="40">
+      <c r="E27" s="37">
         <v>3059</v>
       </c>
-      <c r="G27" s="40">
+      <c r="F27" s="37">
         <v>2</v>
       </c>
-      <c r="H27" s="40">
+      <c r="G27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="49">
+      <c r="H27" s="45">
         <v>17.57</v>
       </c>
-      <c r="J27" s="49">
+      <c r="I27" s="45">
         <v>41.91</v>
       </c>
-      <c r="K27" s="50">
+      <c r="J27" s="46">
         <v>25.75</v>
       </c>
-      <c r="L27" s="51" t="s">
+      <c r="K27" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="79" ph="1"/>
-      <c r="Q27" s="79" ph="1">
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="79" ph="1"/>
+      <c r="P27" s="79" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>7</v>
-      </c>
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="32">
+      <c r="D28" s="29">
         <v>3031</v>
       </c>
-      <c r="F28" s="32">
+      <c r="E28" s="29">
         <v>3034.5</v>
       </c>
-      <c r="G28" s="32">
+      <c r="F28" s="29">
         <v>3.5</v>
       </c>
-      <c r="H28" s="32">
+      <c r="G28" s="29">
         <v>3.5</v>
       </c>
-      <c r="I28" s="44">
+      <c r="H28" s="40">
         <v>18.39</v>
       </c>
-      <c r="J28" s="44">
+      <c r="I28" s="40">
         <v>17.989999999999998</v>
       </c>
-      <c r="K28" s="32">
+      <c r="J28" s="29">
         <v>61.05</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44">
+      <c r="K28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40">
         <v>8</v>
       </c>
-      <c r="Q28" s="44">
-        <f>H28/P28</f>
+      <c r="P28" s="40">
+        <f>G28/O28</f>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>7</v>
-      </c>
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="32">
+      <c r="D29" s="29">
         <v>3040</v>
       </c>
-      <c r="F29" s="32">
+      <c r="E29" s="29">
         <v>3041</v>
       </c>
-      <c r="G29" s="32">
+      <c r="F29" s="29">
         <v>1</v>
       </c>
-      <c r="H29" s="32">
+      <c r="G29" s="29">
         <v>1</v>
       </c>
-      <c r="I29" s="44">
+      <c r="H29" s="40">
         <v>18.670000000000002</v>
       </c>
-      <c r="J29" s="44">
+      <c r="I29" s="40">
         <v>16.57</v>
       </c>
-      <c r="K29" s="32">
+      <c r="J29" s="29">
         <v>62.48</v>
       </c>
-      <c r="L29" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44">
+      <c r="K29" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40">
         <v>8</v>
       </c>
-      <c r="Q29" s="44">
-        <f>H29/P29</f>
+      <c r="P29" s="40">
+        <f>G29/O29</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>7</v>
-      </c>
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="32">
+      <c r="D30" s="29">
         <v>3048</v>
       </c>
-      <c r="F30" s="32">
+      <c r="E30" s="29">
         <v>3052.5</v>
       </c>
-      <c r="G30" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H30" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I30" s="44">
+      <c r="F30" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H30" s="40">
         <v>27.47</v>
       </c>
-      <c r="J30" s="44">
+      <c r="I30" s="40">
         <v>71.73</v>
       </c>
-      <c r="K30" s="32">
+      <c r="J30" s="29">
         <v>69.28</v>
       </c>
-      <c r="L30" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44">
+      <c r="K30" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40">
         <v>8</v>
       </c>
-      <c r="Q30" s="44">
-        <f>H30/P30</f>
+      <c r="P30" s="40">
+        <f>G30/O30</f>
         <v>0.5625</v>
       </c>
-      <c r="R30" s="74" t="s">
+      <c r="Q30" s="70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
-        <v>7</v>
-      </c>
-      <c r="B31" s="36" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="C31" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="38">
+      <c r="D31" s="35">
         <v>3056</v>
       </c>
-      <c r="F31" s="38">
+      <c r="E31" s="35">
         <v>3057</v>
       </c>
-      <c r="G31" s="38">
+      <c r="F31" s="35">
         <v>1</v>
       </c>
-      <c r="H31" s="38">
+      <c r="G31" s="35">
         <v>1</v>
       </c>
-      <c r="I31" s="47">
+      <c r="H31" s="43">
         <v>22.07</v>
       </c>
-      <c r="J31" s="47">
+      <c r="I31" s="43">
         <v>81.73</v>
       </c>
-      <c r="K31" s="38">
+      <c r="J31" s="35">
         <v>63.66</v>
       </c>
-      <c r="L31" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="81">
-        <f t="shared" ref="M31:N31" si="3">($G$31*I31+$G$32*I32)/($G$31+$G$32)</f>
+      <c r="K31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="76">
+        <f t="shared" ref="L31:M31" si="3">($F$31*H31+$F$32*H32)/($F$31+$F$32)</f>
         <v>25.00333333333333</v>
       </c>
-      <c r="N31" s="81">
+      <c r="M31" s="76">
         <f t="shared" si="3"/>
         <v>85.063333333333333</v>
       </c>
-      <c r="O31" s="81">
-        <f>($G$31*K31+$G$32*K32)/($G$31+$G$32)</f>
+      <c r="N31" s="76">
+        <f>($F$31*J31+$F$32*J32)/($F$31+$F$32)</f>
         <v>38.386666666666663</v>
       </c>
-      <c r="P31" s="78" ph="1">
+      <c r="O31" s="78" ph="1">
         <v>8</v>
       </c>
-      <c r="Q31" s="78">
-        <f>H31/P31</f>
+      <c r="P31" s="78">
+        <f>G31/O31</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
-        <v>7</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="40">
+      <c r="D32" s="37">
         <v>3057</v>
       </c>
-      <c r="F32" s="40">
+      <c r="E32" s="37">
         <v>3059</v>
       </c>
-      <c r="G32" s="40">
+      <c r="F32" s="37">
         <v>2</v>
       </c>
-      <c r="H32" s="40">
+      <c r="G32" s="37">
         <v>0</v>
       </c>
-      <c r="I32" s="49">
+      <c r="H32" s="45">
         <v>26.47</v>
       </c>
-      <c r="J32" s="49">
+      <c r="I32" s="45">
         <v>86.73</v>
       </c>
-      <c r="K32" s="50">
+      <c r="J32" s="46">
         <v>25.75</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="K32" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="79" ph="1"/>
-      <c r="Q32" s="79" ph="1">
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="79" ph="1"/>
+      <c r="P32" s="79" ph="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="29">
+        <v>2936</v>
+      </c>
+      <c r="E33" s="29">
+        <v>2939.5</v>
+      </c>
+      <c r="F33" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="H33" s="40">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="I33" s="40">
+        <v>14.29</v>
+      </c>
+      <c r="J33" s="29">
+        <v>77.08</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40">
         <v>8</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="P33" s="40">
+        <f t="shared" ref="P33:P40" si="4">G33/O33</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="32">
-        <v>2936</v>
-      </c>
-      <c r="F33" s="32">
-        <v>2939.5</v>
-      </c>
-      <c r="G33" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="H33" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="I33" s="44">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="J33" s="44">
-        <v>14.29</v>
-      </c>
-      <c r="K33" s="32">
-        <v>77.08</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44">
+      <c r="C34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="29">
+        <v>2945</v>
+      </c>
+      <c r="E34" s="29">
+        <v>2949.5</v>
+      </c>
+      <c r="F34" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="40">
+        <v>22.6</v>
+      </c>
+      <c r="I34" s="40">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="J34" s="29">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40">
         <v>8</v>
       </c>
-      <c r="Q33" s="44">
-        <f t="shared" ref="Q33:Q40" si="4">H33/P33</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>8</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="32">
-        <v>2945</v>
-      </c>
-      <c r="F34" s="32">
-        <v>2949.5</v>
-      </c>
-      <c r="G34" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H34" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I34" s="44">
-        <v>22.6</v>
-      </c>
-      <c r="J34" s="44">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="K34" s="32">
-        <v>75.319999999999993</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="44">
+      <c r="P34" s="40">
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
-      <c r="R34" s="74" t="s">
+      <c r="Q34" s="70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="29">
+        <v>2953</v>
+      </c>
+      <c r="E35" s="29">
+        <v>2957.5</v>
+      </c>
+      <c r="F35" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H35" s="40">
+        <v>25.15</v>
+      </c>
+      <c r="I35" s="40">
+        <v>94.96</v>
+      </c>
+      <c r="J35" s="29">
+        <v>73.86</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40">
         <v>8</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="32">
-        <v>2953</v>
-      </c>
-      <c r="F35" s="32">
-        <v>2957.5</v>
-      </c>
-      <c r="G35" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H35" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I35" s="44">
-        <v>25.15</v>
-      </c>
-      <c r="J35" s="44">
-        <v>94.96</v>
-      </c>
-      <c r="K35" s="32">
-        <v>73.86</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="44">
+      <c r="P35" s="40">
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="29">
+        <v>2961</v>
+      </c>
+      <c r="E36" s="29">
+        <v>2965.5</v>
+      </c>
+      <c r="F36" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G36" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H36" s="40">
+        <v>28.61</v>
+      </c>
+      <c r="I36" s="40">
+        <v>107.45</v>
+      </c>
+      <c r="J36" s="29">
+        <v>76.91</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40">
         <v>8</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="32">
-        <v>2961</v>
-      </c>
-      <c r="F36" s="32">
-        <v>2965.5</v>
-      </c>
-      <c r="G36" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H36" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I36" s="44">
-        <v>28.61</v>
-      </c>
-      <c r="J36" s="44">
-        <v>107.45</v>
-      </c>
-      <c r="K36" s="32">
-        <v>76.91</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="44">
+      <c r="P36" s="40">
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
-        <v>9</v>
-      </c>
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="32">
+      <c r="D37" s="29">
         <v>2936</v>
       </c>
-      <c r="F37" s="32">
+      <c r="E37" s="29">
         <v>2939.5</v>
       </c>
-      <c r="G37" s="32">
+      <c r="F37" s="29">
         <v>3.5</v>
       </c>
-      <c r="H37" s="32">
+      <c r="G37" s="29">
         <v>3.5</v>
       </c>
-      <c r="I37" s="44">
+      <c r="H37" s="40">
         <v>12.54</v>
       </c>
-      <c r="J37" s="44">
+      <c r="I37" s="40">
         <v>10.210000000000001</v>
       </c>
-      <c r="K37" s="32">
+      <c r="J37" s="29">
         <v>73.44</v>
       </c>
-      <c r="L37" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44">
+      <c r="K37" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40">
         <v>8</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="P37" s="40">
         <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
-        <v>9</v>
-      </c>
-      <c r="B38" s="30" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="32">
+      <c r="D38" s="29">
         <v>2945</v>
       </c>
-      <c r="F38" s="32">
+      <c r="E38" s="29">
         <v>2949.5</v>
       </c>
-      <c r="G38" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H38" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I38" s="44">
+      <c r="F38" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G38" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H38" s="40">
         <v>16.68</v>
       </c>
-      <c r="J38" s="44">
+      <c r="I38" s="40">
         <v>13.86</v>
       </c>
-      <c r="K38" s="32">
+      <c r="J38" s="29">
         <v>75.03</v>
       </c>
-      <c r="L38" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44">
+      <c r="K38" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40">
         <v>8</v>
       </c>
-      <c r="Q38" s="44">
+      <c r="P38" s="40">
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
-        <v>9</v>
-      </c>
-      <c r="B39" s="30" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="32">
+      <c r="D39" s="29">
         <v>2953</v>
       </c>
-      <c r="F39" s="32">
+      <c r="E39" s="29">
         <v>2956.5</v>
       </c>
-      <c r="G39" s="32">
+      <c r="F39" s="29">
         <v>3.5</v>
       </c>
-      <c r="H39" s="32">
+      <c r="G39" s="29">
         <v>3.5</v>
       </c>
-      <c r="I39" s="44">
+      <c r="H39" s="40">
         <v>19.010000000000002</v>
       </c>
-      <c r="J39" s="44">
+      <c r="I39" s="40">
         <v>61.91</v>
       </c>
-      <c r="K39" s="32">
+      <c r="J39" s="29">
         <v>73.16</v>
       </c>
-      <c r="L39" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44">
+      <c r="K39" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40">
         <v>8</v>
       </c>
-      <c r="Q39" s="44">
+      <c r="P39" s="40">
         <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
-        <v>9</v>
-      </c>
-      <c r="B40" s="30" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="32">
+      <c r="D40" s="29">
         <v>2961</v>
       </c>
-      <c r="F40" s="32">
+      <c r="E40" s="29">
         <v>2965.5</v>
       </c>
-      <c r="G40" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="H40" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="I40" s="44">
+      <c r="F40" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="H40" s="40">
         <v>23.51</v>
       </c>
-      <c r="J40" s="44">
+      <c r="I40" s="40">
         <v>68.41</v>
       </c>
-      <c r="K40" s="32">
+      <c r="J40" s="29">
         <v>76.97</v>
       </c>
-      <c r="L40" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44">
+      <c r="K40" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40">
         <v>8</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="P40" s="40">
         <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-    </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L52" s="52"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-    </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L53" s="52"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-    </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-    </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L55" s="52"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-    </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-    </row>
-    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L57" s="52"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-    </row>
-    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K52" s="48"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+    </row>
+    <row r="53" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K53" s="48"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+    </row>
+    <row r="54" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K54" s="48"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+    </row>
+    <row r="55" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K55" s="48"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+    </row>
+    <row r="56" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K56" s="48"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+    </row>
+    <row r="57" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K57" s="48"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+    </row>
+    <row r="58" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K58" s="48"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="O31:O32"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3546,7 +3414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F121673-7E25-4FF4-BB2B-3BF64F8C01D4}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3560,346 +3428,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="67">
+      <c r="C1" s="63">
         <v>3200</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="67">
+      <c r="E1" s="63">
         <v>1650</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="67">
+      <c r="G1" s="63">
         <v>0.85</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="67">
+      <c r="I1" s="63">
         <v>1.02</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="88"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="69" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="69" t="s">
+      <c r="N3" s="80"/>
+      <c r="O3" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="65" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="59">
         <f>$C$1*$E$1/1000000</f>
         <v>5.28</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="64">
         <v>3.4444444444444446</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="64">
         <v>3.4444444444444446</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="64">
         <v>0.18170000000000003</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="64">
         <v>0.69642222222222216</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="68">
         <f>100*D4*F4*G4*H4*$G$1/$I$1</f>
         <v>191.7782753876543</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="64">
         <v>14.59</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="64">
         <v>18.52</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="64">
         <v>10.210000000000001</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="64">
         <v>2.76</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="67">
         <f>M4/J4</f>
         <v>0.18917066483893077</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="83">
         <f>MAX(J4:J7)/MIN(J4:J7)</f>
         <v>5.2515421521590131</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="83">
         <f>MAX(K4:K7)/AVERAGE(K4:K7)</f>
         <v>1.7305524239007892</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <f t="shared" ref="D5:D6" si="0">$C$1*$E$1/1000000</f>
         <v>5.28</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="64">
         <v>3.2777777777777777</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="64">
         <v>3.2777777777777777</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="64">
         <v>0.18194444444444446</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="64">
         <v>0.68816666666666659</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="68">
         <f t="shared" ref="I5:I7" si="1">100*D5*F5*G5*H5*$G$1/$I$1</f>
         <v>180.57790689300413</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="64">
         <v>14.85</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="64">
         <v>19.350000000000001</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="64">
         <v>11.81</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="64">
         <v>2.44</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="67">
         <f t="shared" ref="N5:N7" si="2">M5/J5</f>
         <v>0.16430976430976432</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="59">
         <f t="shared" si="0"/>
         <v>5.28</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="64">
         <v>4.166666666666667</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="64">
         <v>4.166666666666667</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="64">
         <v>0.24261111111111111</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="64">
         <v>0.71054444444444431</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="68">
         <f t="shared" si="1"/>
         <v>316.04095812757191</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="64">
         <v>74.849999999999994</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="64">
         <v>103.04</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="64">
         <v>43.41</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="64">
         <v>18.059999999999999</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="67">
         <f t="shared" si="2"/>
         <v>0.24128256513026053</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="66">
         <v>0.8</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="59">
         <f>$C$1*$E$1/1000000*A7</f>
         <v>4.2240000000000002</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
         <v>4.166666666666667</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="64">
         <v>3.5</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="64">
         <v>0.22837777777777782</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="64">
         <v>0.61786851851851843</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="68">
         <f t="shared" si="1"/>
         <v>173.84436511670782</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="64">
         <v>76.62</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="64">
         <v>107.45</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="64">
         <v>44.243333333333332</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="64">
         <v>20.46</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="67">
         <f t="shared" si="2"/>
         <v>0.26703210649960846</v>
       </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="72">
+      <c r="C8" s="81"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="68">
         <f>SUM(I4:I7)</f>
         <v>862.24150552493825</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="74">
         <f>AVERAGE(J4:J7)</f>
         <v>45.227499999999999</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3915,1653 +3783,1653 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="40">
         <v>2931</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="40">
         <v>2934.5</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="40">
         <v>3.5</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="40">
         <v>3.5</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="40">
         <v>18.010000000000002</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="40">
         <v>12.69</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="40">
         <v>78.099999999999994</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="44">
+      <c r="L2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="40">
         <v>8</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="40">
         <v>2940</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="40">
         <v>2944.5</v>
       </c>
-      <c r="G3" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I3" s="44">
+      <c r="G3" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I3" s="40">
         <v>17.600000000000001</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="40">
         <v>13.95</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="40">
         <v>76.34</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="44">
+      <c r="L3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="40">
         <v>8</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <v>2948</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="40">
         <v>2952.5</v>
       </c>
-      <c r="G4" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H4" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="G4" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I4" s="40">
         <v>26.55</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="40">
         <v>89.96</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="40">
         <v>74.84</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="44">
+      <c r="L4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="40">
         <v>8</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="40">
         <v>2956</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="40">
         <v>2960.5</v>
       </c>
-      <c r="G5" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="44">
+      <c r="G5" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="40">
         <v>22.21</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="40">
         <v>92.45</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="40">
         <v>77.89</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="44">
+      <c r="L5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="40">
         <v>8</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="40">
         <v>0.5625</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="40">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>2986</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="40">
         <v>2991</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>5</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>5</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="40">
         <v>23.31</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="40">
         <v>18.52</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="40">
         <v>71.83</v>
       </c>
-      <c r="L6" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="44">
+      <c r="L6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="40">
         <v>8</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="40">
         <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="40">
         <v>2</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="40">
         <v>2995</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="40">
         <v>2998.5</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="40">
         <v>3.5</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>3.5</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="40">
         <v>20.77</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="40">
         <v>17.95</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="40">
         <v>72.180000000000007</v>
       </c>
-      <c r="L7" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="44">
+      <c r="L7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="40">
         <v>8</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="40">
         <v>3003</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="40">
         <v>3006.5</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="40">
         <v>3.5</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>3.5</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="40">
         <v>28.4</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="40">
         <v>103.04</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="40">
         <v>71.67</v>
       </c>
-      <c r="L8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="44">
+      <c r="L8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="40">
         <v>8</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="40">
         <v>3011</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="40">
         <v>3015.5</v>
       </c>
-      <c r="G9" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H9" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I9" s="44">
+      <c r="G9" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="40">
         <v>23.83</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="40">
         <v>98.65</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="40">
         <v>70.86</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="44">
+      <c r="L9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="40">
         <v>8</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="40">
         <v>0.5625</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="40">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="40">
         <v>2986</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>2990.5</v>
       </c>
-      <c r="G10" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H10" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="44">
+      <c r="G10" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="40">
         <v>17.54</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="40">
         <v>14.21</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="40">
         <v>67.319999999999993</v>
       </c>
-      <c r="L10" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="44">
+      <c r="L10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="40">
         <v>8</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N10" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="40">
         <v>3</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="40">
         <v>2995</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="40">
         <v>3000</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="40">
         <v>5</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="40">
         <v>5</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="40">
         <v>15.68</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="40">
         <v>12.71</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="40">
         <v>65.28</v>
       </c>
-      <c r="L11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="44">
+      <c r="L11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="40">
         <v>8</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="40">
         <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="40">
         <v>3003</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="40">
         <v>3006.5</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="40">
         <v>3.5</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="40">
         <v>3.5</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="40">
         <v>22.41</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="40">
         <v>66.91</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="40">
         <v>65.66</v>
       </c>
-      <c r="L12" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="44">
+      <c r="L12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="40">
         <v>8</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="40">
         <v>3011</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="40">
         <v>3015.5</v>
       </c>
-      <c r="G13" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H13" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="44">
+      <c r="G13" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="40">
         <v>19.11</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="40">
         <v>57.41</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="40">
         <v>60.76</v>
       </c>
-      <c r="L13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="44">
+      <c r="L13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="40">
         <v>8</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="40">
         <v>0.5625</v>
       </c>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="40">
         <v>4</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="40">
         <v>2961</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="40">
         <v>2964.5</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>3.5</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="40">
         <v>3.5</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="40">
         <v>21.54</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="40">
         <v>16.47</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="40">
         <v>75.209999999999994</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="44">
+      <c r="L14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="40">
         <v>8</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="40">
         <v>4</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="40">
         <v>2970</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="40">
         <v>2973.5</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="40">
         <v>3.5</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="40">
         <v>3.5</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="40">
         <v>17.649999999999999</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="40">
         <v>14.89</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="40">
         <v>74.010000000000005</v>
       </c>
-      <c r="L15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="44">
+      <c r="L15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="40">
         <v>8</v>
       </c>
-      <c r="N15" s="44">
+      <c r="N15" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="40">
         <v>4</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="40">
         <v>2978</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="40">
         <v>2982.5</v>
       </c>
-      <c r="G16" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H16" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I16" s="44">
+      <c r="G16" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I16" s="40">
         <v>25.42</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="40">
         <v>82.02</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="40">
         <v>72.88</v>
       </c>
-      <c r="L16" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="44">
+      <c r="L16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="40">
         <v>8</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="40">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="40">
         <v>2986</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="40">
         <v>2991</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="40">
         <v>5</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="40">
         <v>5</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="40">
         <v>21.46</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="40">
         <v>81.66</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="40">
         <v>71.69</v>
       </c>
-      <c r="L17" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="44">
+      <c r="L17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="40">
         <v>8</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="40">
         <v>0.625</v>
       </c>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="40">
         <v>5</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="40">
         <v>3031</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="40">
         <v>3033</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>2</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="40">
         <v>2</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>21.46</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="40">
         <v>15.94</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="40">
         <v>61.55</v>
       </c>
-      <c r="L18" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="44">
+      <c r="L18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="40">
         <v>8</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="40">
         <v>5</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="40">
         <v>3040</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="40">
         <v>3042</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="40">
         <v>2</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="40">
         <v>2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="40">
         <v>16.850000000000001</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="40">
         <v>12.6</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="40">
         <v>60.57</v>
       </c>
-      <c r="L19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="44">
+      <c r="L19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="40">
         <v>8</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
+      <c r="A20" s="40">
         <v>5</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="40">
         <v>3048</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="40">
         <v>3052.5</v>
       </c>
-      <c r="G20" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H20" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I20" s="44">
+      <c r="G20" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H20" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I20" s="40">
         <v>25.47</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="40">
         <v>59.73</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="40">
         <v>69.540000000000006</v>
       </c>
-      <c r="L20" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="44">
+      <c r="L20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="40">
         <v>8</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="56">
         <v>5</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="56">
         <v>3056</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="58">
         <v>3060</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="58">
         <v>4</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="56">
         <v>2</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="57">
         <v>22.27</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="57">
         <v>54.23</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="57">
         <v>44.215000000000003</v>
       </c>
-      <c r="L21" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="60">
+      <c r="L21" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="56">
         <v>8</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="56">
         <v>0.25</v>
       </c>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="40">
         <v>6</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="40">
         <v>3031</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="40">
         <v>3033</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="40">
         <v>2</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="40">
         <v>2</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="40">
         <v>13.73</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="40">
         <v>10.96</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="40">
         <v>61.2</v>
       </c>
-      <c r="L22" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="44">
+      <c r="L22" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="40">
         <v>8</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="40">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="40">
         <v>6</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="40">
         <v>3040</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="40">
         <v>3041</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="40">
         <v>1</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="40">
         <v>17.25</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="40">
         <v>11.81</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="40">
         <v>58.14</v>
       </c>
-      <c r="L23" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="44">
+      <c r="L23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="40">
         <v>8</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="40">
         <v>0.125</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+      <c r="A24" s="40">
         <v>6</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="40">
         <v>3048</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="40">
         <v>3052.5</v>
       </c>
-      <c r="G24" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H24" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I24" s="44">
+      <c r="G24" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H24" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I24" s="40">
         <v>18.47</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="40">
         <v>43.41</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="40">
         <v>68.599999999999994</v>
       </c>
-      <c r="L24" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="44">
+      <c r="L24" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="40">
         <v>8</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
+      <c r="A25" s="56">
         <v>6</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="56">
         <v>3056</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="58">
         <v>3059</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="58">
         <v>3</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="56">
         <v>1</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="57">
         <v>19.536666666666665</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="57">
         <v>44.243333333333332</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="57">
         <v>38.4</v>
       </c>
-      <c r="L25" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="60">
+      <c r="L25" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="56">
         <v>8</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="56">
         <v>0.125</v>
       </c>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="40">
         <v>7</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="40">
         <v>3031</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="40">
         <v>3034.5</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="40">
         <v>3.5</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="40">
         <v>3.5</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="40">
         <v>18.39</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="40">
         <v>17.989999999999998</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="40">
         <v>61.05</v>
       </c>
-      <c r="L26" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="44">
+      <c r="L26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="40">
         <v>8</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+      <c r="A27" s="40">
         <v>7</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="40">
         <v>3040</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="40">
         <v>3041</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="40">
         <v>1</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="40">
         <v>1</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <v>18.670000000000002</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <v>16.57</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="40">
         <v>62.48</v>
       </c>
-      <c r="L27" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="44">
+      <c r="L27" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="40">
         <v>8</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="40">
         <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="40">
         <v>7</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="40">
         <v>3048</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="40">
         <v>3052.5</v>
       </c>
-      <c r="G28" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H28" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I28" s="44">
+      <c r="G28" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I28" s="40">
         <v>27.47</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="40">
         <v>71.73</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="40">
         <v>69.28</v>
       </c>
-      <c r="L28" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="44">
+      <c r="L28" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="40">
         <v>8</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+      <c r="A29" s="56">
         <v>7</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="56">
         <v>3056</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="58">
         <v>3059</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="58">
         <v>3</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="56">
         <v>1</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29" s="57">
         <v>25.00333333333333</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29" s="57">
         <v>85.063333333333333</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="57">
         <v>38.386666666666663</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="60">
+      <c r="L29" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="56">
         <v>8</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="56">
         <v>0.125</v>
       </c>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="40">
         <v>8</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="40">
         <v>2936</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="40">
         <v>2939.5</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <v>3.5</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="40">
         <v>3.5</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="40">
         <v>17.010000000000002</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="40">
         <v>14.29</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="40">
         <v>77.08</v>
       </c>
-      <c r="L30" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="44">
+      <c r="L30" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="40">
         <v>8</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="40">
         <v>8</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="40">
         <v>2945</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="40">
         <v>2949.5</v>
       </c>
-      <c r="G31" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H31" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I31" s="44">
+      <c r="G31" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H31" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I31" s="40">
         <v>22.6</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="40">
         <v>19.350000000000001</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="40">
         <v>75.319999999999993</v>
       </c>
-      <c r="L31" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="44">
+      <c r="L31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="40">
         <v>8</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="40">
         <v>8</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="40">
         <v>2953</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="40">
         <v>2957.5</v>
       </c>
-      <c r="G32" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H32" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I32" s="44">
+      <c r="G32" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H32" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I32" s="40">
         <v>25.15</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="40">
         <v>94.96</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="40">
         <v>73.86</v>
       </c>
-      <c r="L32" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="44">
+      <c r="L32" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="40">
         <v>8</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="A33" s="40">
         <v>8</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="40">
         <v>2961</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="40">
         <v>2965.5</v>
       </c>
-      <c r="G33" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H33" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I33" s="44">
+      <c r="G33" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I33" s="40">
         <v>28.61</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="40">
         <v>107.45</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="40">
         <v>76.91</v>
       </c>
-      <c r="L33" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="44">
+      <c r="L33" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="40">
         <v>8</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="40">
         <v>0.5625</v>
       </c>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
+      <c r="A34" s="40">
         <v>9</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="40">
         <v>2936</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="40">
         <v>2939.5</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="40">
         <v>3.5</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="40">
         <v>3.5</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="40">
         <v>12.54</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="40">
         <v>10.210000000000001</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="40">
         <v>73.44</v>
       </c>
-      <c r="L34" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="44">
+      <c r="L34" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="40">
         <v>8</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
+      <c r="A35" s="40">
         <v>9</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="40">
         <v>2945</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="40">
         <v>2949.5</v>
       </c>
-      <c r="G35" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H35" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I35" s="44">
+      <c r="G35" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H35" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I35" s="40">
         <v>16.68</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="40">
         <v>13.86</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="40">
         <v>75.03</v>
       </c>
-      <c r="L35" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="44">
+      <c r="L35" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="40">
         <v>8</v>
       </c>
-      <c r="N35" s="44">
+      <c r="N35" s="40">
         <v>0.5625</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
+      <c r="A36" s="40">
         <v>9</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="40">
         <v>2953</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="40">
         <v>2956.5</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>3.5</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="40">
         <v>3.5</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="40">
         <v>19.010000000000002</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="40">
         <v>61.91</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="40">
         <v>73.16</v>
       </c>
-      <c r="L36" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="44">
+      <c r="L36" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="40">
         <v>8</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="40">
         <v>0.4375</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="44">
+      <c r="A37" s="40">
         <v>9</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="40">
         <v>2961</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="40">
         <v>2965.5</v>
       </c>
-      <c r="G37" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="H37" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="I37" s="44">
+      <c r="G37" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H37" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="I37" s="40">
         <v>23.51</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="40">
         <v>68.41</v>
       </c>
-      <c r="K37" s="44">
+      <c r="K37" s="40">
         <v>76.97</v>
       </c>
-      <c r="L37" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="44">
+      <c r="L37" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="40">
         <v>8</v>
       </c>
-      <c r="N37" s="44">
+      <c r="N37" s="40">
         <v>0.5625</v>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5583,10 +5451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5595,10 +5463,10 @@
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -5630,18 +5498,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -6296,7 +6164,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6320,10 +6188,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6332,10 +6200,10 @@
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -6367,18 +6235,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -6984,7 +6852,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7008,10 +6876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7020,10 +6888,10 @@
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -7055,18 +6923,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -7672,7 +7540,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7698,10 +7566,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7710,10 +7578,10 @@
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -7745,18 +7613,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="51" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -8136,10 +8004,10 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="52">
         <v>19.536666666666665</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="52">
         <v>44.243333333333332</v>
       </c>
       <c r="M12" s="1">
@@ -8180,13 +8048,13 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="52">
         <v>25.00333333333333</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="52">
         <v>85.063333333333333</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="52">
         <v>38.386666666666663</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -8310,15 +8178,15 @@
       <c r="C18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="54">
         <f t="shared" ref="I18:K18" si="0">MAX(I7:I15)</f>
         <v>5</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="54">
         <f t="shared" si="0"/>
         <v>28.61</v>
       </c>
@@ -8326,7 +8194,7 @@
         <f>MAX(L7:L15)</f>
         <v>107.45</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="54">
         <f>MAX(M7:M15)</f>
         <v>77.89</v>
       </c>
@@ -8342,23 +8210,23 @@
       <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="55">
         <f t="shared" ref="I19:K19" si="1">MIN(I7:I15)</f>
         <v>3</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="55">
         <f t="shared" si="1"/>
         <v>19.11</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="53">
         <f>MIN(L7:L15)</f>
         <v>44.243333333333332</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="55">
         <f>MIN(M7:M15)</f>
         <v>38.386666666666663</v>
       </c>
@@ -8391,7 +8259,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8411,10 +8279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8455,8 +8323,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
@@ -8778,7 +8646,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8814,40 +8682,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="91"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
       <c r="D3" t="s">
         <v>81</v>
       </c>
@@ -8878,7 +8746,7 @@
       <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="91"/>
+      <c r="N3" s="88"/>
       <c r="O3" t="s">
         <v>65</v>
       </c>
@@ -8915,7 +8783,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="N2:N3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>